--- a/docs/ig/ig-tooling/0.1.0/StructureDefinition-PatientHI.xlsx
+++ b/docs/ig/ig-tooling/0.1.0/StructureDefinition-PatientHI.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-21T11:04:15+00:00</t>
+    <t>2024-03-28T07:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
